--- a/models/calculation engines/AA price forecast/Inputs/AaPF.xlsx
+++ b/models/calculation engines/AA price forecast/Inputs/AaPF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="6"/>
+    <workbookView windowWidth="22931" windowHeight="10475"/>
   </bookViews>
   <sheets>
     <sheet name="PDT" sheetId="5" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460">
   <si>
     <t>Summary Name</t>
   </si>
@@ -2770,15 +2770,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.000"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2821,13 +2821,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2841,9 +2834,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2852,43 +2868,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2903,7 +2882,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2917,25 +2927,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2949,30 +2957,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2980,6 +2966,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2996,40 +2989,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3056,24 +3017,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3086,7 +3029,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3098,19 +3101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3122,25 +3113,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,19 +3143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,7 +3161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3200,37 +3179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3349,8 +3304,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3370,17 +3364,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3410,49 +3398,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3461,41 +3416,41 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3504,96 +3459,96 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3615,10 +3570,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="3" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3651,7 +3606,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="6" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="7" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3669,13 +3624,13 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="4" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="4" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="5" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="5" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="5" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="5" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3684,14 +3639,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4020,11 +3974,28 @@
   <sheetPr/>
   <dimension ref="A1:CY102"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AX19" sqref="AX19"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="36.6388888888889" customWidth="1"/>
+    <col min="12" max="12" width="36.7685185185185" customWidth="1"/>
+    <col min="13" max="13" width="30.0185185185185" customWidth="1"/>
+    <col min="14" max="14" width="19.1759259259259" customWidth="1"/>
+    <col min="15" max="15" width="41.6574074074074" customWidth="1"/>
+    <col min="16" max="16" width="25.5185185185185" customWidth="1"/>
+    <col min="17" max="17" width="30.1574074074074" customWidth="1"/>
+    <col min="18" max="18" width="24.5925925925926" customWidth="1"/>
+    <col min="19" max="19" width="20.3703703703704" customWidth="1"/>
+    <col min="20" max="20" width="19.3055555555556" customWidth="1"/>
+    <col min="21" max="21" width="26.1851851851852" customWidth="1"/>
+    <col min="76" max="76" width="19.1759259259259" customWidth="1"/>
+    <col min="77" max="77" width="24.6018518518519" customWidth="1"/>
+    <col min="78" max="78" width="29.2314814814815" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:103">
       <c r="A1" t="s">
@@ -4276,28 +4247,28 @@
       <c r="CI1" t="s">
         <v>78</v>
       </c>
-      <c r="CK1" s="34" t="s">
+      <c r="CK1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="CM1" s="34" t="s">
+      <c r="CM1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="CO1" s="34" t="s">
+      <c r="CO1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="CQ1" s="34" t="s">
+      <c r="CQ1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="CS1" s="34" t="s">
+      <c r="CS1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="CU1" s="34" t="s">
+      <c r="CU1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="CW1" s="34" t="s">
+      <c r="CW1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="CY1" s="34" t="s">
+      <c r="CY1" s="33" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4551,28 +4522,28 @@
       <c r="CI2">
         <v>1</v>
       </c>
-      <c r="CK2" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO2" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ2" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS2" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW2" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY2" s="37">
+      <c r="CK2" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW2" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4826,28 +4797,28 @@
       <c r="CI3">
         <v>1</v>
       </c>
-      <c r="CK3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="37">
+      <c r="CK3" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5101,28 +5072,28 @@
       <c r="CI4">
         <v>1</v>
       </c>
-      <c r="CK4" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO4" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ4" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW4" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY4" s="37">
+      <c r="CK4" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ4" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW4" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5376,28 +5347,28 @@
       <c r="CI5">
         <v>1</v>
       </c>
-      <c r="CK5" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM5" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO5" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ5" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS5" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW5" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="37">
+      <c r="CK5" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5651,28 +5622,28 @@
       <c r="CI6">
         <v>1</v>
       </c>
-      <c r="CK6" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM6" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO6" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ6" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS6" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU6" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW6" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY6" s="37">
+      <c r="CK6" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5926,28 +5897,28 @@
       <c r="CI7">
         <v>1</v>
       </c>
-      <c r="CK7" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM7" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO7" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ7" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS7" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW7" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY7" s="37">
+      <c r="CK7" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6201,28 +6172,28 @@
       <c r="CI8">
         <v>1</v>
       </c>
-      <c r="CK8" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM8" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO8" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ8" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS8" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW8" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY8" s="37">
+      <c r="CK8" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW8" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6476,28 +6447,28 @@
       <c r="CI9">
         <v>1</v>
       </c>
-      <c r="CK9" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM9" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO9" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ9" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS9" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW9" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY9" s="37">
+      <c r="CK9" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS9" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW9" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY9" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6751,28 +6722,28 @@
       <c r="CI10">
         <v>1</v>
       </c>
-      <c r="CK10" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM10" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO10" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ10" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS10" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU10" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW10" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY10" s="37">
+      <c r="CK10" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ10" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW10" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY10" s="36">
         <v>0</v>
       </c>
     </row>
@@ -7026,28 +6997,28 @@
       <c r="CI11">
         <v>1</v>
       </c>
-      <c r="CK11" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM11" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO11" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS11" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU11" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW11" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY11" s="37">
+      <c r="CK11" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW11" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="36">
         <v>0</v>
       </c>
     </row>
@@ -7295,28 +7266,28 @@
       <c r="CI12">
         <v>1</v>
       </c>
-      <c r="CK12" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM12" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO12" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ12" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS12" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU12" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW12" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY12" s="37">
+      <c r="CK12" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO12" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ12" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS12" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW12" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY12" s="36">
         <v>0</v>
       </c>
     </row>
@@ -7570,28 +7541,28 @@
       <c r="CI13">
         <v>1</v>
       </c>
-      <c r="CK13" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM13" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO13" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ13" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS13" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW13" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY13" s="37">
+      <c r="CK13" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO13" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ13" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS13" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW13" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY13" s="36">
         <v>0</v>
       </c>
     </row>
@@ -7845,28 +7816,28 @@
       <c r="CI14">
         <v>1</v>
       </c>
-      <c r="CK14" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM14" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO14" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ14" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS14" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU14" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW14" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY14" s="37">
+      <c r="CK14" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM14" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO14" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ14" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS14" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW14" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY14" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8120,28 +8091,28 @@
       <c r="CI15">
         <v>1</v>
       </c>
-      <c r="CK15" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM15" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO15" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ15" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS15" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW15" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY15" s="37">
+      <c r="CK15" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM15" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ15" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS15" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW15" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY15" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8395,28 +8366,28 @@
       <c r="CI16">
         <v>1</v>
       </c>
-      <c r="CK16" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM16" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO16" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ16" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS16" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU16" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW16" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY16" s="37">
+      <c r="CK16" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM16" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO16" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ16" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS16" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW16" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY16" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8670,28 +8641,28 @@
       <c r="CI17">
         <v>1</v>
       </c>
-      <c r="CK17" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM17" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO17" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ17" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS17" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU17" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW17" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY17" s="37">
+      <c r="CK17" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM17" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO17" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ17" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS17" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW17" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY17" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8945,28 +8916,28 @@
       <c r="CI18">
         <v>1</v>
       </c>
-      <c r="CK18" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM18" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO18" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ18" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS18" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU18" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW18" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY18" s="37">
+      <c r="CK18" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM18" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO18" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS18" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW18" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY18" s="36">
         <v>0</v>
       </c>
     </row>
@@ -9220,28 +9191,28 @@
       <c r="CI19">
         <v>1</v>
       </c>
-      <c r="CK19" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM19" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO19" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ19" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS19" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU19" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW19" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY19" s="37">
+      <c r="CK19" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM19" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO19" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ19" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS19" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU19" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW19" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY19" s="36">
         <v>0</v>
       </c>
     </row>
@@ -9495,28 +9466,28 @@
       <c r="CI20">
         <v>1</v>
       </c>
-      <c r="CK20" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM20" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO20" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ20" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS20" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU20" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW20" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY20" s="37">
+      <c r="CK20" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM20" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO20" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ20" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS20" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU20" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW20" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY20" s="36">
         <v>0</v>
       </c>
     </row>
@@ -9770,28 +9741,28 @@
       <c r="CI21">
         <v>1</v>
       </c>
-      <c r="CK21" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM21" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO21" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ21" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS21" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU21" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW21" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY21" s="37">
+      <c r="CK21" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM21" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO21" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ21" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS21" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW21" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY21" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10045,28 +10016,28 @@
       <c r="CI22">
         <v>1</v>
       </c>
-      <c r="CK22" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM22" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO22" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ22" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS22" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU22" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW22" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY22" s="37">
+      <c r="CK22" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM22" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO22" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ22" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS22" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU22" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW22" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY22" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10320,28 +10291,28 @@
       <c r="CI23">
         <v>1</v>
       </c>
-      <c r="CK23" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM23" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO23" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ23" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS23" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU23" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW23" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY23" s="37">
+      <c r="CK23" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM23" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO23" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ23" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS23" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU23" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW23" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY23" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10595,28 +10566,28 @@
       <c r="CI24">
         <v>1</v>
       </c>
-      <c r="CK24" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM24" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO24" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ24" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS24" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU24" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW24" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY24" s="37">
+      <c r="CK24" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM24" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO24" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ24" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS24" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU24" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW24" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY24" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10870,28 +10841,28 @@
       <c r="CI25">
         <v>1</v>
       </c>
-      <c r="CK25" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM25" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO25" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ25" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS25" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU25" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW25" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY25" s="37">
+      <c r="CK25" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM25" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO25" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ25" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS25" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU25" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW25" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY25" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11145,28 +11116,28 @@
       <c r="CI26">
         <v>1</v>
       </c>
-      <c r="CK26" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM26" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO26" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ26" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS26" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU26" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW26" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY26" s="37">
+      <c r="CK26" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM26" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO26" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ26" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS26" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU26" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW26" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY26" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11420,28 +11391,28 @@
       <c r="CI27">
         <v>1</v>
       </c>
-      <c r="CK27" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM27" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO27" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ27" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS27" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU27" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW27" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY27" s="37">
+      <c r="CK27" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM27" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO27" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ27" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS27" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU27" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW27" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY27" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11695,28 +11666,28 @@
       <c r="CI28">
         <v>1</v>
       </c>
-      <c r="CK28" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM28" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO28" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ28" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS28" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU28" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW28" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY28" s="37">
+      <c r="CK28" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM28" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO28" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ28" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS28" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU28" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW28" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY28" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11970,28 +11941,28 @@
       <c r="CI29">
         <v>1</v>
       </c>
-      <c r="CK29" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM29" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO29" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ29" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS29" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU29" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW29" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY29" s="37">
+      <c r="CK29" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM29" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO29" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ29" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS29" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU29" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW29" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY29" s="36">
         <v>0</v>
       </c>
     </row>
@@ -12245,28 +12216,28 @@
       <c r="CI30">
         <v>1</v>
       </c>
-      <c r="CK30" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM30" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO30" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ30" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS30" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU30" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW30" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY30" s="37">
+      <c r="CK30" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM30" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO30" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ30" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS30" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU30" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW30" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY30" s="36">
         <v>0</v>
       </c>
     </row>
@@ -12520,28 +12491,28 @@
       <c r="CI31">
         <v>1</v>
       </c>
-      <c r="CK31" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM31" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO31" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ31" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS31" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU31" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW31" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY31" s="37">
+      <c r="CK31" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM31" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO31" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ31" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS31" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU31" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW31" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY31" s="36">
         <v>0</v>
       </c>
     </row>
@@ -12795,28 +12766,28 @@
       <c r="CI32">
         <v>1</v>
       </c>
-      <c r="CK32" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM32" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO32" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ32" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS32" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU32" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW32" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY32" s="37">
+      <c r="CK32" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM32" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO32" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ32" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS32" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU32" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW32" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY32" s="36">
         <v>0</v>
       </c>
     </row>
@@ -13070,28 +13041,28 @@
       <c r="CI33">
         <v>1</v>
       </c>
-      <c r="CK33" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM33" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO33" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ33" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS33" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU33" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW33" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY33" s="37">
+      <c r="CK33" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM33" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO33" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ33" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS33" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU33" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW33" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY33" s="36">
         <v>0</v>
       </c>
     </row>
@@ -13345,28 +13316,28 @@
       <c r="CI34">
         <v>1</v>
       </c>
-      <c r="CK34" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM34" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO34" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ34" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS34" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU34" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW34" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY34" s="37">
+      <c r="CK34" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM34" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO34" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ34" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS34" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU34" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW34" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY34" s="36">
         <v>0</v>
       </c>
     </row>
@@ -13620,28 +13591,28 @@
       <c r="CI35">
         <v>1</v>
       </c>
-      <c r="CK35" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM35" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO35" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ35" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS35" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU35" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW35" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY35" s="37">
+      <c r="CK35" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM35" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO35" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ35" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS35" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU35" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW35" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -13895,28 +13866,28 @@
       <c r="CI36">
         <v>1</v>
       </c>
-      <c r="CK36" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM36" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO36" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ36" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS36" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU36" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW36" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY36" s="37">
+      <c r="CK36" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM36" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO36" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ36" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS36" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU36" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW36" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY36" s="36">
         <v>0</v>
       </c>
     </row>
@@ -14170,28 +14141,28 @@
       <c r="CI37">
         <v>1</v>
       </c>
-      <c r="CK37" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM37" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO37" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ37" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS37" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU37" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW37" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY37" s="37">
+      <c r="CK37" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM37" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO37" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ37" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS37" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU37" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW37" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY37" s="36">
         <v>0</v>
       </c>
     </row>
@@ -14445,28 +14416,28 @@
       <c r="CI38">
         <v>1</v>
       </c>
-      <c r="CK38" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM38" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO38" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ38" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS38" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU38" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW38" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY38" s="37">
+      <c r="CK38" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM38" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO38" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ38" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS38" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU38" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW38" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY38" s="36">
         <v>0</v>
       </c>
     </row>
@@ -14720,28 +14691,28 @@
       <c r="CI39">
         <v>1</v>
       </c>
-      <c r="CK39" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM39" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO39" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ39" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS39" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU39" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW39" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY39" s="37">
+      <c r="CK39" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM39" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO39" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ39" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS39" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU39" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW39" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY39" s="36">
         <v>0</v>
       </c>
     </row>
@@ -14995,28 +14966,28 @@
       <c r="CI40">
         <v>1</v>
       </c>
-      <c r="CK40" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM40" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO40" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ40" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS40" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU40" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW40" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY40" s="37">
+      <c r="CK40" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM40" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO40" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ40" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS40" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU40" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW40" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY40" s="36">
         <v>0</v>
       </c>
     </row>
@@ -15270,28 +15241,28 @@
       <c r="CI41">
         <v>1</v>
       </c>
-      <c r="CK41" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM41" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO41" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ41" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS41" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU41" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW41" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY41" s="37">
+      <c r="CK41" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM41" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO41" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ41" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS41" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU41" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW41" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY41" s="36">
         <v>0</v>
       </c>
     </row>
@@ -15545,28 +15516,28 @@
       <c r="CI42">
         <v>1</v>
       </c>
-      <c r="CK42" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM42" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO42" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ42" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS42" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU42" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW42" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY42" s="37">
+      <c r="CK42" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM42" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO42" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ42" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS42" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU42" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW42" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY42" s="36">
         <v>0</v>
       </c>
     </row>
@@ -15820,28 +15791,28 @@
       <c r="CI43">
         <v>1</v>
       </c>
-      <c r="CK43" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM43" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO43" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ43" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS43" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU43" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW43" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY43" s="37">
+      <c r="CK43" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM43" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO43" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ43" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS43" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU43" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW43" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY43" s="36">
         <v>0</v>
       </c>
     </row>
@@ -16095,28 +16066,28 @@
       <c r="CI44">
         <v>1</v>
       </c>
-      <c r="CK44" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM44" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO44" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ44" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS44" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU44" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW44" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY44" s="37">
+      <c r="CK44" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM44" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO44" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ44" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS44" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU44" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW44" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY44" s="36">
         <v>0</v>
       </c>
     </row>
@@ -16370,28 +16341,28 @@
       <c r="CI45">
         <v>1</v>
       </c>
-      <c r="CK45" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM45" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO45" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ45" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS45" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU45" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW45" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY45" s="37">
+      <c r="CK45" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM45" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO45" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ45" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS45" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU45" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW45" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY45" s="36">
         <v>0</v>
       </c>
     </row>
@@ -16645,28 +16616,28 @@
       <c r="CI46">
         <v>1</v>
       </c>
-      <c r="CK46" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM46" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO46" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ46" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS46" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU46" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW46" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY46" s="37">
+      <c r="CK46" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM46" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO46" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ46" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS46" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU46" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW46" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY46" s="36">
         <v>0</v>
       </c>
     </row>
@@ -16920,28 +16891,28 @@
       <c r="CI47">
         <v>1</v>
       </c>
-      <c r="CK47" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM47" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO47" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ47" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS47" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU47" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW47" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY47" s="37">
+      <c r="CK47" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM47" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO47" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ47" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS47" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU47" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW47" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY47" s="36">
         <v>0</v>
       </c>
     </row>
@@ -17195,28 +17166,28 @@
       <c r="CI48">
         <v>1</v>
       </c>
-      <c r="CK48" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM48" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO48" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ48" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS48" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU48" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW48" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY48" s="37">
+      <c r="CK48" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM48" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO48" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ48" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS48" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU48" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW48" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY48" s="36">
         <v>0</v>
       </c>
     </row>
@@ -17470,28 +17441,28 @@
       <c r="CI49">
         <v>1</v>
       </c>
-      <c r="CK49" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM49" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO49" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ49" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS49" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU49" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW49" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY49" s="37">
+      <c r="CK49" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM49" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO49" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ49" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS49" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU49" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW49" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY49" s="36">
         <v>0</v>
       </c>
     </row>
@@ -17745,28 +17716,28 @@
       <c r="CI50">
         <v>1</v>
       </c>
-      <c r="CK50" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM50" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO50" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ50" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS50" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU50" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW50" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY50" s="37">
+      <c r="CK50" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM50" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO50" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ50" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS50" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU50" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW50" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY50" s="36">
         <v>0</v>
       </c>
     </row>
@@ -18020,28 +17991,28 @@
       <c r="CI51">
         <v>1</v>
       </c>
-      <c r="CK51" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM51" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO51" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ51" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS51" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU51" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW51" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY51" s="37">
+      <c r="CK51" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM51" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO51" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ51" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS51" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU51" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW51" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY51" s="36">
         <v>0</v>
       </c>
     </row>
@@ -18295,28 +18266,28 @@
       <c r="CI52">
         <v>1</v>
       </c>
-      <c r="CK52" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM52" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO52" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ52" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS52" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU52" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW52" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY52" s="37">
+      <c r="CK52" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM52" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO52" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ52" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS52" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU52" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW52" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY52" s="36">
         <v>0</v>
       </c>
     </row>
@@ -18570,28 +18541,28 @@
       <c r="CI53">
         <v>1</v>
       </c>
-      <c r="CK53" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM53" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO53" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ53" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS53" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU53" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW53" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY53" s="37">
+      <c r="CK53" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM53" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO53" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ53" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS53" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU53" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW53" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY53" s="36">
         <v>0</v>
       </c>
     </row>
@@ -18842,28 +18813,28 @@
       <c r="CI54">
         <v>1</v>
       </c>
-      <c r="CK54" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM54" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO54" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ54" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS54" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU54" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW54" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY54" s="37">
+      <c r="CK54" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM54" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO54" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ54" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS54" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU54" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW54" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY54" s="36">
         <v>0</v>
       </c>
     </row>
@@ -19114,28 +19085,28 @@
       <c r="CI55">
         <v>1</v>
       </c>
-      <c r="CK55" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM55" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO55" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ55" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS55" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU55" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW55" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY55" s="37">
+      <c r="CK55" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM55" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO55" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ55" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS55" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU55" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW55" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY55" s="36">
         <v>0</v>
       </c>
     </row>
@@ -19389,28 +19360,28 @@
       <c r="CI56">
         <v>1</v>
       </c>
-      <c r="CK56" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM56" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO56" s="35">
+      <c r="CK56" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM56" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO56" s="34">
         <v>1.1</v>
       </c>
-      <c r="CQ56" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS56" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU56" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW56" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY56" s="37">
+      <c r="CQ56" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS56" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU56" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW56" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY56" s="36">
         <v>0</v>
       </c>
     </row>
@@ -19664,28 +19635,28 @@
       <c r="CI57">
         <v>1</v>
       </c>
-      <c r="CK57" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM57" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO57" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ57" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS57" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU57" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW57" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY57" s="37">
+      <c r="CK57" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM57" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO57" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ57" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS57" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU57" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW57" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY57" s="36">
         <v>0</v>
       </c>
     </row>
@@ -19939,28 +19910,28 @@
       <c r="CI58">
         <v>1</v>
       </c>
-      <c r="CK58" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM58" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO58" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ58" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS58" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU58" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW58" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY58" s="37">
+      <c r="CK58" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM58" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO58" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ58" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS58" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU58" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW58" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY58" s="36">
         <v>0</v>
       </c>
     </row>
@@ -20214,28 +20185,28 @@
       <c r="CI59">
         <v>1</v>
       </c>
-      <c r="CK59" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM59" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO59" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ59" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS59" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU59" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW59" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY59" s="37">
+      <c r="CK59" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM59" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO59" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ59" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS59" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU59" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW59" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY59" s="36">
         <v>0</v>
       </c>
     </row>
@@ -20489,28 +20460,28 @@
       <c r="CI60">
         <v>1</v>
       </c>
-      <c r="CK60" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM60" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO60" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ60" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS60" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU60" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW60" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY60" s="37">
+      <c r="CK60" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM60" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO60" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ60" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS60" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU60" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW60" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY60" s="36">
         <v>0</v>
       </c>
     </row>
@@ -20764,28 +20735,28 @@
       <c r="CI61">
         <v>1</v>
       </c>
-      <c r="CK61" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM61" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO61" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ61" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS61" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU61" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW61" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY61" s="37">
+      <c r="CK61" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM61" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO61" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ61" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS61" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU61" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW61" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY61" s="36">
         <v>0</v>
       </c>
     </row>
@@ -21039,28 +21010,28 @@
       <c r="CI62">
         <v>1</v>
       </c>
-      <c r="CK62" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM62" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO62" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ62" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS62" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU62" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW62" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY62" s="37">
+      <c r="CK62" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM62" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO62" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ62" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS62" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU62" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW62" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY62" s="36">
         <v>0</v>
       </c>
     </row>
@@ -21314,28 +21285,28 @@
       <c r="CI63">
         <v>1</v>
       </c>
-      <c r="CK63" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM63" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO63" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ63" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS63" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU63" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW63" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY63" s="37">
+      <c r="CK63" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM63" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO63" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ63" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS63" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU63" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW63" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY63" s="36">
         <v>0</v>
       </c>
     </row>
@@ -21589,28 +21560,28 @@
       <c r="CI64">
         <v>1</v>
       </c>
-      <c r="CK64" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM64" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO64" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ64" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS64" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU64" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW64" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY64" s="37">
+      <c r="CK64" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM64" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO64" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ64" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS64" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU64" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW64" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY64" s="36">
         <v>0</v>
       </c>
     </row>
@@ -21864,28 +21835,28 @@
       <c r="CI65">
         <v>1</v>
       </c>
-      <c r="CK65" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM65" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO65" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ65" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS65" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU65" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW65" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY65" s="37">
+      <c r="CK65" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM65" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO65" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ65" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS65" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU65" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW65" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY65" s="36">
         <v>0</v>
       </c>
     </row>
@@ -22139,28 +22110,28 @@
       <c r="CI66">
         <v>1</v>
       </c>
-      <c r="CK66" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM66" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO66" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ66" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS66" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU66" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW66" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY66" s="37">
+      <c r="CK66" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM66" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO66" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ66" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS66" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU66" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW66" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY66" s="36">
         <v>0</v>
       </c>
     </row>
@@ -22414,28 +22385,28 @@
       <c r="CI67">
         <v>1</v>
       </c>
-      <c r="CK67" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM67" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO67" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ67" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS67" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU67" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW67" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY67" s="37">
+      <c r="CK67" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM67" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO67" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ67" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS67" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU67" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW67" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY67" s="36">
         <v>0</v>
       </c>
     </row>
@@ -22689,28 +22660,28 @@
       <c r="CI68">
         <v>1</v>
       </c>
-      <c r="CK68" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM68" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO68" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ68" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS68" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU68" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW68" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY68" s="37">
+      <c r="CK68" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM68" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO68" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ68" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS68" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU68" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW68" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY68" s="36">
         <v>0</v>
       </c>
     </row>
@@ -22964,28 +22935,28 @@
       <c r="CI69">
         <v>1</v>
       </c>
-      <c r="CK69" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM69" s="36">
-        <v>0</v>
-      </c>
-      <c r="CO69" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ69" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS69" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU69" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW69" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY69" s="37">
+      <c r="CK69" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM69" s="35">
+        <v>0</v>
+      </c>
+      <c r="CO69" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ69" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS69" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU69" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW69" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY69" s="36">
         <v>0</v>
       </c>
     </row>
@@ -23239,28 +23210,28 @@
       <c r="CI70">
         <v>1</v>
       </c>
-      <c r="CK70" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM70" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO70" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ70" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS70" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU70" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW70" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY70" s="37">
+      <c r="CK70" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM70" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO70" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ70" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS70" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU70" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW70" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY70" s="36">
         <v>0</v>
       </c>
     </row>
@@ -23514,28 +23485,28 @@
       <c r="CI71">
         <v>1</v>
       </c>
-      <c r="CK71" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM71" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO71" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ71" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS71" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU71" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW71" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY71" s="37">
+      <c r="CK71" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM71" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO71" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ71" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS71" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU71" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW71" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY71" s="36">
         <v>0</v>
       </c>
     </row>
@@ -23789,28 +23760,28 @@
       <c r="CI72">
         <v>1</v>
       </c>
-      <c r="CK72" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM72" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO72" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ72" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS72" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU72" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW72" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY72" s="37">
+      <c r="CK72" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM72" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO72" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ72" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS72" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU72" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW72" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY72" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24064,28 +24035,28 @@
       <c r="CI73">
         <v>1</v>
       </c>
-      <c r="CK73" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM73" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO73" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ73" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS73" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU73" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW73" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY73" s="37">
+      <c r="CK73" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM73" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO73" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ73" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS73" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU73" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW73" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY73" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24339,28 +24310,28 @@
       <c r="CI74">
         <v>1</v>
       </c>
-      <c r="CK74" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM74" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO74" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ74" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS74" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU74" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW74" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY74" s="37">
+      <c r="CK74" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM74" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO74" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ74" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS74" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU74" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW74" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY74" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24614,28 +24585,28 @@
       <c r="CI75">
         <v>1</v>
       </c>
-      <c r="CK75" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM75" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO75" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ75" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS75" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU75" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW75" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY75" s="37">
+      <c r="CK75" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM75" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO75" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ75" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS75" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU75" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW75" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY75" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24889,28 +24860,28 @@
       <c r="CI76">
         <v>1</v>
       </c>
-      <c r="CK76" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM76" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO76" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ76" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS76" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU76" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW76" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY76" s="37">
+      <c r="CK76" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM76" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO76" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ76" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS76" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU76" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW76" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY76" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25164,28 +25135,28 @@
       <c r="CI77">
         <v>1</v>
       </c>
-      <c r="CK77" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM77" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO77" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ77" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS77" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU77" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW77" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY77" s="37">
+      <c r="CK77" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM77" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO77" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ77" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS77" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU77" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW77" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY77" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25439,28 +25410,28 @@
       <c r="CI78">
         <v>0.7</v>
       </c>
-      <c r="CK78" s="35">
+      <c r="CK78" s="34">
         <v>0.7</v>
       </c>
-      <c r="CM78" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO78" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ78" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS78" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU78" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW78" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY78" s="37">
+      <c r="CM78" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO78" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ78" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS78" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU78" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW78" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY78" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25714,28 +25685,28 @@
       <c r="CI79">
         <v>0.7</v>
       </c>
-      <c r="CK79" s="35">
+      <c r="CK79" s="34">
         <v>0.7</v>
       </c>
-      <c r="CM79" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO79" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ79" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS79" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU79" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW79" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY79" s="37">
+      <c r="CM79" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO79" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ79" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS79" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU79" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW79" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY79" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25989,28 +25960,28 @@
       <c r="CI80">
         <v>1</v>
       </c>
-      <c r="CK80" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM80" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO80" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ80" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS80" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU80" s="35">
+      <c r="CK80" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM80" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO80" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ80" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS80" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU80" s="34">
         <v>1.3</v>
       </c>
-      <c r="CW80" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY80" s="37">
+      <c r="CW80" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY80" s="36">
         <v>0</v>
       </c>
     </row>
@@ -26264,28 +26235,28 @@
       <c r="CI81">
         <v>1</v>
       </c>
-      <c r="CK81" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM81" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO81" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ81" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS81" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU81" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW81" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY81" s="37">
+      <c r="CK81" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM81" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO81" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ81" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS81" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU81" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW81" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY81" s="36">
         <v>0</v>
       </c>
     </row>
@@ -26539,28 +26510,28 @@
       <c r="CI82">
         <v>1</v>
       </c>
-      <c r="CK82" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM82" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO82" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ82" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS82" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU82" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW82" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY82" s="37">
+      <c r="CK82" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM82" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO82" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ82" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS82" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU82" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW82" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY82" s="36">
         <v>0</v>
       </c>
     </row>
@@ -26814,28 +26785,28 @@
       <c r="CI83">
         <v>1</v>
       </c>
-      <c r="CK83" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM83" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO83" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ83" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS83" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU83" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW83" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY83" s="37">
+      <c r="CK83" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM83" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO83" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ83" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS83" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU83" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW83" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY83" s="36">
         <v>0</v>
       </c>
     </row>
@@ -27089,28 +27060,28 @@
       <c r="CI84">
         <v>1</v>
       </c>
-      <c r="CK84" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM84" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO84" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ84" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS84" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU84" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW84" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY84" s="37">
+      <c r="CK84" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM84" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO84" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ84" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS84" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU84" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW84" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY84" s="36">
         <v>0</v>
       </c>
     </row>
@@ -27364,28 +27335,28 @@
       <c r="CI85">
         <v>0.7</v>
       </c>
-      <c r="CK85" s="35">
+      <c r="CK85" s="34">
         <v>0.7</v>
       </c>
-      <c r="CM85" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO85" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ85" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS85" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU85" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW85" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY85" s="37">
+      <c r="CM85" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO85" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ85" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS85" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU85" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW85" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY85" s="36">
         <v>0</v>
       </c>
     </row>
@@ -27639,28 +27610,28 @@
       <c r="CI86">
         <v>0.7</v>
       </c>
-      <c r="CK86" s="35">
+      <c r="CK86" s="34">
         <v>0.7</v>
       </c>
-      <c r="CM86" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO86" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ86" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS86" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU86" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW86" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY86" s="37">
+      <c r="CM86" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO86" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ86" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS86" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU86" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW86" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY86" s="36">
         <v>0</v>
       </c>
     </row>
@@ -27914,28 +27885,28 @@
       <c r="CI87">
         <v>1</v>
       </c>
-      <c r="CK87" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM87" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO87" s="35">
+      <c r="CK87" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM87" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO87" s="34">
         <v>0.9</v>
       </c>
-      <c r="CQ87" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS87" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU87" s="35">
+      <c r="CQ87" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS87" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU87" s="34">
         <v>0.9</v>
       </c>
-      <c r="CW87" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY87" s="37">
+      <c r="CW87" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY87" s="36">
         <v>0</v>
       </c>
     </row>
@@ -28189,28 +28160,28 @@
       <c r="CI88">
         <v>1</v>
       </c>
-      <c r="CK88" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM88" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO88" s="35">
+      <c r="CK88" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM88" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO88" s="34">
         <v>0.9</v>
       </c>
-      <c r="CQ88" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS88" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU88" s="35">
+      <c r="CQ88" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS88" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU88" s="34">
         <v>0.9</v>
       </c>
-      <c r="CW88" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY88" s="37">
+      <c r="CW88" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY88" s="36">
         <v>0</v>
       </c>
     </row>
@@ -28464,28 +28435,28 @@
       <c r="CI89">
         <v>1</v>
       </c>
-      <c r="CK89" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM89" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO89" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ89" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS89" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU89" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW89" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY89" s="37">
+      <c r="CK89" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM89" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO89" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ89" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS89" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU89" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW89" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY89" s="36">
         <v>0</v>
       </c>
     </row>
@@ -28736,28 +28707,28 @@
       <c r="CI90">
         <v>1</v>
       </c>
-      <c r="CK90" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM90" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO90" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ90" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS90" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU90" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW90" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY90" s="37">
+      <c r="CK90" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM90" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO90" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ90" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS90" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU90" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW90" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY90" s="36">
         <v>0</v>
       </c>
     </row>
@@ -29011,28 +28982,28 @@
       <c r="CI91">
         <v>1</v>
       </c>
-      <c r="CK91" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM91" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO91" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ91" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS91" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU91" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW91" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY91" s="37">
+      <c r="CK91" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM91" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO91" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ91" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS91" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU91" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW91" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY91" s="36">
         <v>0</v>
       </c>
     </row>
@@ -29130,7 +29101,7 @@
       <c r="AE92" s="1">
         <v>1</v>
       </c>
-      <c r="AF92" s="38">
+      <c r="AF92" s="37">
         <v>3150</v>
       </c>
       <c r="AG92">
@@ -29286,28 +29257,28 @@
       <c r="CI92">
         <v>1</v>
       </c>
-      <c r="CK92" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM92" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO92" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ92" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS92" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU92" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW92" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY92" s="37">
+      <c r="CK92" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM92" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO92" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ92" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS92" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU92" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW92" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY92" s="36">
         <v>0</v>
       </c>
     </row>
@@ -29405,7 +29376,7 @@
       <c r="AE93" s="1">
         <v>1</v>
       </c>
-      <c r="AF93" s="38">
+      <c r="AF93" s="37">
         <v>3150</v>
       </c>
       <c r="AG93">
@@ -29561,28 +29532,28 @@
       <c r="CI93">
         <v>1</v>
       </c>
-      <c r="CK93" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM93" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO93" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ93" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS93" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU93" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW93" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY93" s="37">
+      <c r="CK93" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM93" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO93" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ93" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS93" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU93" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW93" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY93" s="36">
         <v>0</v>
       </c>
     </row>
@@ -29680,7 +29651,7 @@
       <c r="AE94" s="1">
         <v>1</v>
       </c>
-      <c r="AF94" s="38">
+      <c r="AF94" s="37">
         <v>3150</v>
       </c>
       <c r="AG94">
@@ -29836,28 +29807,28 @@
       <c r="CI94">
         <v>1</v>
       </c>
-      <c r="CK94" s="35">
-        <v>1</v>
-      </c>
-      <c r="CM94" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO94" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ94" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS94" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU94" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW94" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY94" s="37">
+      <c r="CK94" s="34">
+        <v>1</v>
+      </c>
+      <c r="CM94" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO94" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ94" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS94" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU94" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW94" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY94" s="36">
         <v>0</v>
       </c>
     </row>
@@ -29955,7 +29926,7 @@
       <c r="AE95" s="1">
         <v>1</v>
       </c>
-      <c r="AF95" s="38">
+      <c r="AF95" s="37">
         <v>3150</v>
       </c>
       <c r="AG95">
@@ -30111,100 +30082,100 @@
       <c r="CI95">
         <v>0.7</v>
       </c>
-      <c r="CK95" s="35">
+      <c r="CK95" s="34">
         <v>0.7</v>
       </c>
-      <c r="CM95" s="36">
-        <v>1</v>
-      </c>
-      <c r="CO95" s="35">
-        <v>1</v>
-      </c>
-      <c r="CQ95" s="35">
-        <v>1</v>
-      </c>
-      <c r="CS95" s="35">
-        <v>0</v>
-      </c>
-      <c r="CU95" s="35">
-        <v>1</v>
-      </c>
-      <c r="CW95" s="35">
-        <v>1</v>
-      </c>
-      <c r="CY95" s="37">
+      <c r="CM95" s="35">
+        <v>1</v>
+      </c>
+      <c r="CO95" s="34">
+        <v>1</v>
+      </c>
+      <c r="CQ95" s="34">
+        <v>1</v>
+      </c>
+      <c r="CS95" s="34">
+        <v>0</v>
+      </c>
+      <c r="CU95" s="34">
+        <v>1</v>
+      </c>
+      <c r="CW95" s="34">
+        <v>1</v>
+      </c>
+      <c r="CY95" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="89:103">
-      <c r="CK96" s="35"/>
-      <c r="CM96" s="36"/>
-      <c r="CO96" s="35"/>
-      <c r="CQ96" s="35"/>
-      <c r="CS96" s="35"/>
-      <c r="CU96" s="35"/>
-      <c r="CW96" s="35"/>
-      <c r="CY96" s="37"/>
+      <c r="CK96" s="34"/>
+      <c r="CM96" s="35"/>
+      <c r="CO96" s="34"/>
+      <c r="CQ96" s="34"/>
+      <c r="CS96" s="34"/>
+      <c r="CU96" s="34"/>
+      <c r="CW96" s="34"/>
+      <c r="CY96" s="36"/>
     </row>
     <row r="97" spans="89:103">
-      <c r="CK97" s="35"/>
-      <c r="CM97" s="36"/>
-      <c r="CO97" s="35"/>
-      <c r="CQ97" s="35"/>
-      <c r="CS97" s="35"/>
-      <c r="CU97" s="35"/>
-      <c r="CW97" s="35"/>
-      <c r="CY97" s="37"/>
+      <c r="CK97" s="34"/>
+      <c r="CM97" s="35"/>
+      <c r="CO97" s="34"/>
+      <c r="CQ97" s="34"/>
+      <c r="CS97" s="34"/>
+      <c r="CU97" s="34"/>
+      <c r="CW97" s="34"/>
+      <c r="CY97" s="36"/>
     </row>
     <row r="98" spans="89:103">
-      <c r="CK98" s="35"/>
-      <c r="CM98" s="36"/>
-      <c r="CO98" s="35"/>
-      <c r="CQ98" s="35"/>
-      <c r="CS98" s="35"/>
-      <c r="CU98" s="35"/>
-      <c r="CW98" s="35"/>
-      <c r="CY98" s="37"/>
+      <c r="CK98" s="34"/>
+      <c r="CM98" s="35"/>
+      <c r="CO98" s="34"/>
+      <c r="CQ98" s="34"/>
+      <c r="CS98" s="34"/>
+      <c r="CU98" s="34"/>
+      <c r="CW98" s="34"/>
+      <c r="CY98" s="36"/>
     </row>
     <row r="99" spans="89:103">
-      <c r="CK99" s="35"/>
-      <c r="CM99" s="36"/>
-      <c r="CO99" s="35"/>
-      <c r="CQ99" s="35"/>
-      <c r="CS99" s="35"/>
-      <c r="CU99" s="35"/>
-      <c r="CW99" s="35"/>
-      <c r="CY99" s="37"/>
+      <c r="CK99" s="34"/>
+      <c r="CM99" s="35"/>
+      <c r="CO99" s="34"/>
+      <c r="CQ99" s="34"/>
+      <c r="CS99" s="34"/>
+      <c r="CU99" s="34"/>
+      <c r="CW99" s="34"/>
+      <c r="CY99" s="36"/>
     </row>
     <row r="100" spans="89:103">
-      <c r="CK100" s="35"/>
-      <c r="CM100" s="36"/>
-      <c r="CO100" s="35"/>
-      <c r="CQ100" s="35"/>
-      <c r="CS100" s="35"/>
-      <c r="CU100" s="35"/>
-      <c r="CW100" s="35"/>
-      <c r="CY100" s="37"/>
+      <c r="CK100" s="34"/>
+      <c r="CM100" s="35"/>
+      <c r="CO100" s="34"/>
+      <c r="CQ100" s="34"/>
+      <c r="CS100" s="34"/>
+      <c r="CU100" s="34"/>
+      <c r="CW100" s="34"/>
+      <c r="CY100" s="36"/>
     </row>
     <row r="101" spans="89:103">
-      <c r="CK101" s="35"/>
-      <c r="CM101" s="36"/>
-      <c r="CO101" s="35"/>
-      <c r="CQ101" s="35"/>
-      <c r="CS101" s="35"/>
-      <c r="CU101" s="35"/>
-      <c r="CW101" s="35"/>
-      <c r="CY101" s="37"/>
+      <c r="CK101" s="34"/>
+      <c r="CM101" s="35"/>
+      <c r="CO101" s="34"/>
+      <c r="CQ101" s="34"/>
+      <c r="CS101" s="34"/>
+      <c r="CU101" s="34"/>
+      <c r="CW101" s="34"/>
+      <c r="CY101" s="36"/>
     </row>
     <row r="102" spans="89:103">
-      <c r="CK102" s="35"/>
-      <c r="CM102" s="36"/>
-      <c r="CO102" s="35"/>
-      <c r="CQ102" s="35"/>
-      <c r="CS102" s="35"/>
-      <c r="CU102" s="35"/>
-      <c r="CW102" s="35"/>
-      <c r="CY102" s="37"/>
+      <c r="CK102" s="34"/>
+      <c r="CM102" s="35"/>
+      <c r="CO102" s="34"/>
+      <c r="CQ102" s="34"/>
+      <c r="CS102" s="34"/>
+      <c r="CU102" s="34"/>
+      <c r="CW102" s="34"/>
+      <c r="CY102" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -30213,7 +30184,7 @@
       <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -30241,7 +30212,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -30257,6 +30228,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
     <col min="3" max="14" width="12.8518518518519"/>
   </cols>
   <sheetData>
@@ -31198,7 +31171,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -42417,7 +42390,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -42427,11 +42400,15 @@
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="21.5555555555556" customWidth="1"/>
+    <col min="21" max="21" width="23.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="120" spans="1:22">
       <c r="A1" s="3" t="s">
@@ -43686,7 +43663,7 @@
       <c r="V22" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -49237,7 +49214,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -49247,11 +49224,14 @@
   <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="13" max="13" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
